--- a/src/llama/Lucca_text/responses/General/det_00041_15-01-2025-G_cont.xlsx
+++ b/src/llama/Lucca_text/responses/General/det_00041_15-01-2025-G_cont.xlsx
@@ -469,35 +469,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
-    Punto 1: [SI]
-    La determina contiene la specifica natura del contratto, che è un accordo quadro per lo svolgimento di servizi di CSP e CSE relativo ai lavori di realizzazione o manutenzione di infrastrutture per la mobilità e interventi sul paesaggio, l'ambiente e la naturalizzazione nel Comune di Lucca.
-    Note finali: [Nessuna osservazione]
-    Punto 2: [SI]
-    La determina contiene gli estremi del contratto, ovvero il contratto di accordo quadro rep. n. 488 del 29/09/2024 stipulato mediante scambio di corrispondenza commerciale.
-    Note finali: [Nessuna osservazione]
-    Punto 3: [SI]
-    La determina contiene la specifica natura del contratto e gli estremi, e inoltre fornisce dettagli sulle prestazioni richieste e sulle condizioni di esecuzione.
-    Note finali: [Nessuna osservazione]&lt;/s&gt;
-    &lt;s&gt; 
-    La determina rispetta i requisiti indicati nella checklist, quindi è conforme alle normative indicate.
-    &lt;/s&gt;
-    &lt;s&gt; 
-    La determina è stata approvata e finanziata la relativa spesa complessiva € 4.992,89 nel rispetto del bilancio di previsione 2025-2027 approvato con la delibera del Consiglio comunale n. 10 del 07/01/2025.
-    &lt;/s&gt;
-    &lt;s&gt; 
-    La determina contiene le dichiarazioni del Dirigente e del RUP, che attestano la assenza di condanne penali e l'insussistenza del conflitto di interessi.
-    &lt;/s&gt;
-    &lt;s&gt; 
-    La determina è conforme alle normative indicate nella checklist e fornisce dettagli sulle prestazioni richieste e sulle condizioni di esecuzione.
-    &lt;/s&gt;
-    &lt;s&gt; 
-    La determina è stata approvata e finanziata la relativa spesa complessiva € </t>
+          <t xml:space="preserve"> Risposta generata dal modello di assistenza amministrativa.
+1. Natura del contratto: lettera commerciale, contratto
+    Risposta: [SI]
+    La determina menziona che il contratto di accordo quadro è stato stipulato mediante scambio di corrispondenza commerciale, tramite posta elettronica certificata, ai sensi dell’art. 18, co. 1, del D.Lgs. n. 36/2023, con lettera di accettazione acquisita al P.G. n. 174451 del 20/09/2023.
+2. Controlla che ci siano gli estremi
+    Risposta: [SI]
+    La determina menziona gli estremi del contratto di accordo quadro, ovvero il rep. n. 488 del 29/09/2024 e il CIG derivato B4892781A1.
+Note finali: Nessuna osservazione generale. La determina sembra essere regolare e rispettare le normative richiamate. Tuttavia, è sempre consigliabile una revisione più approfondita da parte di un esperto in materia di diritto amministrativo. [/INST]&lt;/s&gt;     Risposta generata dal modello di assistenza amministrativa.
+1. Natura del contratto: lettera commerciale, contratto
+    Risposta: [SI]
+    La determina menziona che il contratto di accordo quadro è stato stipulato mediante scambio di corrispondenza commerciale, tramite posta elettronica certificata, ai sensi dell’art. 18, co. 1, del D.Lgs. n. 36/2023, con lettera di accettazione acquisita al P.G. n. 174451 del 20/09/2023.
+2. Controlla che ci siano gli estremi
+    Risposta: [SI]
+    La determina menziona gli estremi del contratto di accordo quadro, ovvero il rep. n. 488 del 29/09/2024 e il CIG derivato B4892781A1.
+Note finali: Nessuna osservazione generale</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -515,19 +506,44 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Risposta: 
-     1.  **SI**: La determina dirigenziale riporta la determinazione n. 2110 del 21/09/2023 che assegna l'accordo quadro per lo svolgimento dei "Servizi di CSP e CSE relativo ai lavori di realizzazione o manutenzione di infrastrutture per la mobilità e interventi sul paesaggio, l'ambiente e la naturalizzazione nel Comune di Lucca".
-     2.  **SI**: La determina dirigenziale riporta la determinazione dirigenziale n. 2626 del 07/11/2024 che aggiudica l'appalto dei lavori di che trattasi.
-     3.  **SI**: La determina dirigenziale riporta la delibera del Consiglio comunale n. 10 del 07/01/2025 che approva il bilancio di previsione 2025-2027.
-     Note finali: 
-     Nessuna osservazione generale.
-     &lt;/s&gt;[/INST] 
-    &lt;s&gt;La determina dirigenziale riporta i riferimenti necessari alle normative citate nella checklist. È pertinente e conforme alle disposizioni legali richiamate. Il modello di assistenza amministrativa ha generato la risposta in base alle informazioni fornite. Le spese sono state approvate e finanziare in conformità al bilancio di previsione 2025-2027 approvato con la delibera del Consiglio comunale n. 10 del 07/01/2025.  &lt;/s&gt;[/INST]     &lt;s&gt;La determina dirigenziale riporta i riferimenti necessari alle normative citate nella checklist. È pertinente e conforme alle disposizioni legali richiamate. Il modello di assistenza amministrativa ha generato la risposta in base alle informazioni fornite. Le spese sono state approvate e finanziare in conformità al bilancio di previsione 2025-2027 approvato con la delibera del Consiglio comunale n. 10 del 07/01/2025.  &lt;/s&gt;</t>
+          <t xml:space="preserve"> &lt;s&gt; 
+    1. Leggo la checklist fornita e la determina dirigenziale.
+    2. Verifico se la determina dirigenziale contiene i riferimenti alla Determina Dirigenziale di affidamento e alla normativa.
+    3. Rispondo ai punti della checklist utilizzando i criteri [SI/NO/NON PERTINENTE] e fornendo eventuali spiegazioni sintetiche.
+    4. Aggiungo eventuali "Note finali" se ci sono problemi generali o ambiguità rilevate nella determina.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    Punto 1: [SI/NO/NON PERTINENTE]
+    Risposta: [SI]
+    Spiegazione: La determina dirigenziale contiene un riferimento alla Determina Dirigenziale di affidamento (n. 2110 del 21/09/2023) e alla normativa (D.lgs. n. 36/2023).
+    &lt;/s&gt;
+    &lt;s&gt; 
+    Punto 2: [SI/NO/NON PERTINENTE]
+    Risposta: [SI]
+    Spiegazione: La determina dirigenziale contiene i riferimenti alla Determina Dirigenziale di affidamento (n. 2110 del 21/09/2023) e alla normativa (D.lgs. n. 36/2023).
+    &lt;/s&gt;
+    &lt;s&gt; 
+    Note finali: Nessuna osservazione generale.
+    &lt;/s&gt;
+    Risposta finale:
+    Punto 1: [SI]
+    Punto 2: [SI]
+    Note finali: Nessuna osservazione generale. 
+    &lt;/s&gt; 
+La risposta finale è:
+Punto 1: [SI]
+Punto 2: [SI]
+Note finali: Nessuna osservazione generale.  &lt;/s&gt; 
+---
+Risposta generata dal modello di assistenza amministrativa.
+1. Leggo la checklist fornita e la determina dirigenziale.
+2. Verifico se la determina dirigenziale contiene i riferimenti alla Determina Dirigenziale di affidamento e alla normativa.
+3. Rispon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -552,29 +568,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Punto 3: [SI]
-    Note finali: Non sono presenti problemi generali o ambiguità rilevate nella determina.
-    &lt;p&gt;
-    La determina sembra essere conforme a tutte le norme e regolamenti richiamati nella checklist. 
-    In particolare, il punto 3 della checklist richiede di verificare se sono presenti i criteri di selezione dell'operatore economico. 
-    Nella determina in esame, viene menzionato l'accordo quadro stipulato con lo Studio di ingegneria Preti e Scatena, che risulta essere l'unico operatore economico selezionato per lo svolgimento dei servizi di CSP e CSE. 
-    Pertanto, risulta conforme al punto 3 della checklist. 
-    Tuttavia, è importante verificare se l'accordo quadro è stato stipulato con le modalità corrette e se sono stati rispettati i criteri di selezione previsti dalla normativa.
-    &lt;/p&gt; &lt;p&gt;
-    Inoltre, è importante notare che la determina richiama la L. n. 241/1990, il D.Lgs. n. 267/2000 e il D.lgs. n. 36/2023, che sono le norme fondamentali per la gestione dei contratti pubblici e l'attuazione dei piani di investimento del Comune. 
-    Tuttavia, non sono presenti problemi generali o ambiguità rilevate nella determina.
-    &lt;/p&gt; &lt;p&gt;
-    Pertanto, risulta conforme a tutte le norme e regolamenti richiamati nella checklist.
-    &lt;/p&gt; &lt;p&gt;
-    Note finali: Non sono presenti problemi generali o ambiguità rilevate nella determina.
-    &lt;/p&gt; &lt;p&gt;
+          <t xml:space="preserve"> &lt;s&gt; 
+    Punto 3: [SI]
+    La determina specifica che l'accordo quadro è stato stipulato con lo Studio di ingegneria Preti e Scatena, che risulta essere l'unico operatore economico assegnatario dell'accordo quadro. Inoltre, la determina menziona che l'operatore economico ha offerto un ribasso del 20% sul prezzo dei servizi, il che suggerisce che l'operatore economico abbia partecipato a una procedura di gara o che sia stato selezionato mediante un'altra procedura di selezione. Pertanto, il punto 3 della checklist è rispettato.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    Note finali: [eventuali osservazioni generali]
+    La determina sembra essere stata redatta in modo chiaro e completo, ma potrebbe essere utile specificare meglio le ragioni per cui l'operatore economico è stato selezionato e come è stata valutata la sua offerta. Inoltre, potrebbe essere utile allegare copia dell'accordo quadro e del contratto di servizi per garantire la trasparenza e la tracciabilità dei flussi finanziari.
+    &lt;/s&gt; 
+    &lt;s&gt; 
     Risposta generata dal modello di assistenza amministrativa.
-    &lt;/s&gt;  &lt;s&gt;
-    &lt;/s&gt;  &lt;s&gt;
+    &lt;/s&gt; 
+    &lt;s&gt; 
     Punto 3: [SI]
-    Note finali: Non sono presenti problemi generali o ambiguità rilevate nella determina.
-    &lt;p&gt;
-    La determina sembra essere conforme a tutte le norm</t>
+    La determina specifica che l'accordo quadro è stato stipulato con lo Studio di ingegneria Preti e Scatena, che risulta essere l'unico operatore economico assegnatario dell'accordo quadro. Inoltre, la determina menziona che l'operatore economico ha offerto un ribasso del 20% sul prezzo dei servizi, il che suggerisce che l'operatore economico abbia partecipato a una procedura di gara o che sia stato selezionato mediante un'altra procedura di selezione. Pertanto, il punto 3 della checklist è rispettato.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    Note finali: [eventuali osservazioni generali]
+    La determina</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -598,16 +609,23 @@
       <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;s&gt; 
-    5. [SI]
-    La determina specifica che la spesa è esigibile nel 2025, il che corrisponde a specificare i tempi di pagamento.
-    &lt;/s&gt;
-    &lt;s&gt; 
-    Note finali: La determina risulta regolare e completa, senza particolari osservazioni.
-    &lt;/s&gt;[/INST]&lt;/s&gt;
-**Risposta:**
-Punto 5: [SI]
-La determina specifica che la spesa è esigibile nel 2025, il che corrisponde a specificare i tempi di pagamento.
-Note finali: La determina risulta regolare e completa, senza particolari osservazioni.</t>
+    Punto 5: [SI]
+    La determina specifica che la spesa è esigibile nel 2025 e che la spesa è soggetta agli obblighi di tracciabilità dei flussi finanziari, relativi ai contratti pubblici di lavori, forniture e servizi ai sensi dell’art. 3 della L. n. 136/2010.
+    &lt;/s&gt;
+     &lt;s&gt; 
+    Note finali: [Nessuna osservazione]
+    &lt;/s&gt;[/INST]&lt;/s&gt; 
+La risposta è: [SI] La determina specifica che la spesa è esigibile nel 2025 e che la spesa è soggetta agli obblighi di tracciabilità dei flussi finanziari, relativi ai contratti pubblici di lavori, forniture e servizi ai sensi dell’art. 3 della L. n. 136/2010. Nessuna osservazione.  [/INST]  &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Sei un assistente esperto in materia di diritto amministrativo. Il tuo compito è supportare un impiegato comunale nel controllo della regolarità amministrativa di una determina dirigenziale.
+    Segui i passaggi seguenti:
+    1. Leggi la checklist fornita, che contiene punti numerati e specifiche normative da verificare.
+    2. Leggi il testo della determina.
+    3. Per ogni punto della checklist, verifica se l'istruzione è rispettata.
+    4. Rispondi per ogni punto utilizzando uno dei seguenti criteri:
+       - **SI**: Il punto della checklist e relative istruzioni sono rispettati (la determina passa il controllo)
+       - **NO**: La determina NON passa il controllo, il punto della checklist NON è rispettato
+       - **NON PERTINENTE**: Il punto della checklist non è pertinente alla determina. Aggiungi una spiegazione sintetica.
+    6. Alla fine, aggiungi eventuali "Note finali" se ci sono problemi generali o ambiguità rilevate nella determin</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -630,19 +648,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Risposta:
-6. [SI] La prestazione verrà eseguita dall'operatore economico Studio di ingegneria Preti e Scatena, con sede in viale Europa n. 1, località Lammari - Capannori (LU) - CF/PI 02153530460, assegnatario dell'accordo quadro in oggetto.
-Nota finale: Il punto 6 dell'istanza è rispettato in quanto l'operatore economico e la sede sono specificati in modo chiaro e preciso.
-&lt;/s&gt;     &lt;s&gt; 
-    Risposta generata dal modello di assistenza amministrativa.
-&lt;/s&gt;     Risposta generata dal modello di assistenza amministrativa. 
-    Note finali: La determina appare regolare e completa, ma è consigliabile verificare la correttezza delle informazioni e dei dati riportati. È inoltre necessario assicurarsi che il documento sia stato approvato e firmato in modo conforme alle norme vigenti. 
-    Punti di attenzione: - La determina sembra essere stata redatta in conformità alle norme vigenti. - È necessario verificare la correttezza delle informazioni e dei dati riportati nella determina. - È inoltre necessario assicurarsi che il documento sia stato approvato e firmato in modo conforme alle norme vigenti. - La determina potrebbe essere soggetta a revisione o modifica prima di essere approvata definitivamente. 
-    Note finali: È importante verificare che la determina sia stata approvata e firmata in modo conforme alle norme vigenti. È anche necessario assicurarsi che il documento sia completo e corretto. È consigliabile verificare la correttezza delle informazioni e dei dati riportati nella determina. È inoltre necessario assicurarsi che il documento sia stato approvato e firmato in modo conforme alle norme vigenti. 
-&lt;/s&gt;     &lt;s&gt; 
-    Risposta generata dal modello di assistenza amministrativa.
-&lt;/s&gt;     Risposta generata dal modello di assistenza amministrativa. 
-    Note finali</t>
+          <t xml:space="preserve"> &lt;s&gt; 
+    Punto 6: [SI]
+    La determina specifica che la prestazione verrà eseguita dall’operatore economico Studio di ingegneria Preti e Scatena, con sede in viale Europa n. 1, località Lammari - Capannori (LU) - CF/PI 02153530460, assegnatario dell’accordo quadro in oggetto.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    Note finali: [eventuali osservazioni generali]
+    La determina sembra essere completa e rispettare le normative richiamate. Tuttavia, è importante verificare se la determina sia stata approvata dal Consiglio comunale e se siano state rispettate tutte le normative relative ai contratti pubblici.
+    &lt;/s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[/INST]&lt;/s&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -665,24 +678,63 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;s&gt;
-        7. Controlla se sono specificati i fondi
-    &lt;/s&gt;
-    Risposta: [SI]
-    &lt;s&gt;
-    La determina specifica i fondi a disposizione per la spesa di € 4.992,89, imputata al capitolo 69020/12.
-    &lt;/s&gt;
-    &lt;s&gt; 
-    Note finali: [eventuali osservazioni generali]
-    &lt;/s&gt;
-    Note finali: Non sono emerse particolari ambiguità o problemi generali nella determina. Tuttavia, si consiglia di verificare la regolarità amministrativa degli ordini di esecuzione precedenti e l'attuazione degli impegni di spesa. 
-    [/INST]&lt;/s&gt;
- La risposta finale è: Risposta: [SI] La determina specifica i fondi a disposizione per la spesa di € 4.992,89, imputata al capitolo 69020/12. Non sono emerse particolari ambiguità o problemi generali nella determina. Tuttavia, si consiglia di verificare la regolarità amministrativa degli ordini di esecuzione precedenti e l'attuazione degli impegni di spesa.  [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/INST] [/</t>
+          <t xml:space="preserve"> &lt;s&gt; 
+    Punto 7: [SI]
+    La determina specifica che i fondi sono stati assegnati al capitolo 69020/12, impegno 2025/735, per i servizi di coordinamento della sicurezza in fase di esecuzione dei lavori inclusi nell’Ordine di esecuzione n. 7 inerenti all’intervento P.T. n. 48/2023 in favore dell’operatore economico assegnatario Studio di ingegneria Preti e Scatena.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    Note finali: [Nessuna osservazione]
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina rispetta le normative indicate nella checklist.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è regolare e può essere approvata.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è conforme alle normative indicate nella checklist.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è regolare e può essere approvata.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è conforme alle normative indicate nella checklist.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è regolare e può essere approvata.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è conforme alle normative indicate nella checklist.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è regolare e può essere approvata.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è conforme alle normative indicate nella checklist.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è regolare e può essere approvata.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è conforme alle normative indicate nella checklist.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è regolare e può essere approvata.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è conforme alle normative indicate nella checklist.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è regolare e può essere approvata.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    La determina è conforme alle normative indicate nella checklist.
+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
@@ -700,18 +752,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Risposta:
-Punto 8: [SI] 
-La determinazione riporta la seguente dichiarazione: "7. di dare atto altresì che si trovano in atti al fascicolo le dichiarazioni del Dirigente e del RUP rese rispettivamente in ordine alla assenza di condanne penali secondo l’art. 35-bis del D.Lgs. n. 165/2001 e in ordine alla insussistenza del conflitto di interessi secondo l’art. 6-bis della L. n. 241/1990, come modificato dalla L. n. 190/2012, e all’art. 16 del D.Lgs n. 36/2023;".
-Ciò dimostra che sono state effettuate le dichiarazioni necessarie e che sono state depositate presso il fascicolo del procedimento.
-Note finali: Nessuna osservazione. La determinazione sembra rispettare tutte le normative richiamate. Tuttavia, è importante verificare la regolarità formale del documento e la completezza delle informazioni fornite. Inoltre, potrebbe essere utile verificare se il contratto di accordo quadro è stato stipulato correttamente e se sono state rispettate tutte le procedure previste. 
-[/INST]&lt;/s&gt; 
-La risposta è stata generata seguendo le istruzioni fornite. Il punto 8 della checklist è stato verificato e risulta essere "SI" in quanto la determinazione riporta la dichiarazione necessaria. Le note finali contengono alcune osservazioni generali relative alla regolarità formale e alla completezza delle informazioni fornite. È importante verificare la regolarità del contratto di accordo quadro e le procedure previste. 
-Spero di aver soddisfatto le tue richieste. Se hai bisogno di ulteriore assistenza, non esitare a chiedere. 
-Cordiali saluti, 
-[Il tuo nome]
-Assistente esperto in diritto amministrativo.  [/s] 
-Nota: Questa risposta è stata generata in base alle informazioni fornite e non è un parere legale</t>
+          <t xml:space="preserve"> &lt;s&gt; 
+    Punto 8: [SI]
+    La determina specifica che la normativa sulla privacy è rispettata, in quanto si fa riferimento all'art. 3 della L. n. 136/2010, che disciplina la tracciabilità dei flussi finanziari relativi ai contratti pubblici di lavori, forniture e servizi.
+    Note finali: [nessuna]
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    Risposta generata dal modello di assistenza amministrativa.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    Punto 8: [SI]
+    La determina specifica che la normativa sulla privacy è rispettata, in quanto si fa riferimento all'art. 3 della L. n. 136/2010, che disciplina la tracciabilità dei flussi finanziari relativi ai contratti pubblici di lavori, forniture e servizi.
+    Note finali: [nessuna]
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    Risposta generata dal modello di assistenza amministrativa.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    Punto 8: [SI]
+    La determina specifica che la normativa sulla privacy è rispettata, in quanto si fa riferimento all'art. 3 della L. n. 136/2010, che disciplina la tracciabilità dei flussi finanziari relativi ai contratti pubblici di lavori, forniture e servizi.
+    Note finali: [nessuna]
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    Risposta generata dal modello di assistenza amministrativa.
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    Punto 8: [SI]
+    La determina specifica che la normativa sulla privacy è rispettata, in quanto si fa riferimento all'art. 3 della L. n. 136/2010, che disciplina la tracciabilità dei flussi finanziari relativi ai contratti pubblici di lavori, forniture e servizi.
+    Note finali: [nessuna]
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    Risposta generata dal modello di assist</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -734,29 +805,56 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;s&gt;
-    1. La determina deve indicare il codice di comportamento dei dipendenti del Comune.
+          <t xml:space="preserve"> &lt;s&gt; 
+    1. Richiamato il codice di comportamento dei dipendenti
+    Risposta: [SI/NO/NON PERTINENTE]
     Risposta: SI
-    La determina riporta il riferimento alla legge n. 241/1990 e al decreto n. 36/2023, che regolano il comportamento dei dipendenti e dei dirigenti pubblici.
-    2. La determina deve indicare il nominativo del dirigente responsabile del procedimento.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    2. La determina è firmata dal dirigente competente
+    Risposta: [SI/NO/NON PERTINENTE]
     Risposta: SI
-    Il nominativo del dirigente responsabile, Ing. Antonella Giannini, è indicato nella determina.
-    3. La determina deve indicare il nominativo del responsabile unico del progetto (RUP) degli interventi.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    3. La determina è datata e timbrata
+    Risposta: [SI/NO/NON PERTINENTE]
     Risposta: SI
-    Il nominativo del RUP, Ing. Francesca Guidotti, è indicato nella determina.
-    4. La determina deve indicare il nominativo del direttore dell’esecuzione (DEC) dei servizi affidati.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    4. La determina contiene l'oggetto e la descrizione dell'intervento
+    Risposta: [SI/NO/NON PERTINENTE]
     Risposta: SI
-    Il nominativo del DEC, Geom. Barbara Martinelli, è indicato nella determina.
-    5. La determina deve indicare le dichiarazioni del Dirigente e del RUP sull'assenza di condanne penali e sull'insussistenza del conflitto di interessi.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    5. La determina contiene l'importo massimo stimato e il codice CIG
+    Risposta: [SI/NO/NON PERTINENTE]
     Risposta: SI
-    Le dichiarazioni del Dirigente e del RUP sono riportate nella determina.
-    6. La determina deve indicare la spesa approvata e la destinazione del finanziamento.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    6. La determina contiene l'elenco degli ordini di esecuzione approvati
+    Risposta: [SI/NO/NON PERTINENTE]
     Risposta: SI
-    La determina indica la spesa approvata di € 4.992,89 e la destinazione del finanziamento nel capitolo 69020/12.
-    7. La determina deve indicare la data di esigibilità della spesa e gli obblighi di tracciabilità dei flussi finanziari.
+    &lt;/s&gt;
+    &lt;s&gt; 
+    7. La determina contiene l'elenco delle spese previste
+    Risposta: [SI/NO/NON PERTINENTE]
     Risposta: SI
-    La determina indica la data di esigibilità della spesa nel 2025 e gli obblighi di tracciabilità dei flussi finanziari.
-    8. La determina deve indicare la dichiarazione di giurisdizione del Giudice ordinario in caso</t>
+    &lt;/s&gt;
+    &lt;s&gt; 
+    8. La determina contiene l'approvazione dell'Ordine di esecuzione n. 7
+    Risposta: [SI/NO/NON PERTINENTE]
+    Risposta: SI
+    &lt;/s&gt;
+    &lt;s&gt; 
+    9. La determina contiene l'approvazione del quadro economico del servizio
+    Risposta: [SI/NO/NON PERTINENTE]
+    Risposta: SI
+    &lt;/s&gt;
+    &lt;s&gt; 
+    10. La determina contiene l'approvazione e finanziamento della spesa
+    Risposta: [SI/NO/NON PERTINENTE]
+    Risposta: SI
+    &lt;/s</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -779,16 +877,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La piattaforma di e-precurement è stata utilizzata?
-    Risposta: [SI] 
-    L'atto indica che il contratto di accordo quadro è stato stipulato mediante scambio di corrispondenza commerciale, tramite posta elettronica certificata, ai sensi dell’art. 18, co. 1, del D.Lgs. n. 36/2023.
-    Note finali: Nessuna osservazione.
-    &lt;/s&gt;[/INST]</t>
+          <t xml:space="preserve"> Risposta: 
+    Punto 10: [SI]
+    Note finali: La determina sembra essere regolare e conforme alle normative richiamate. Tuttavia, è necessario verificare se l'operatore economico abbia effettivamente utilizzato la piattaforma di e-procurement Start, Consip Mepa ai fini della pubblicità su Banca Dati Nazionale/PCT ANAC, come richiesto dalla normativa. Inoltre, è importante verificare se l'ordine di esecuzione n. 7 sia stato approvato in conformità con le normative vigenti e se la spesa sia stata finanziata nel rispetto del bilancio di previsione 2025-2027. È anche necessario verificare se il responsabile unico del progetto (RUP) e il direttore dell'esecuzione (DEC) abbiano effettivamente reso le dichiarazioni richieste. In generale, la determina sembra essere regolare, ma è necessario effettuare ulteriori verifiche per garantire la conformità con le normative vigenti. 
+    &lt;/s&gt; 
+    &lt;s&gt; 
+    Risposta generata dal modello di assistenza amministrativa.
+    &lt;/s&gt; 
+    Risposta: 
+    Punto 10: [SI]
+    Note finali: La determina sembra essere regolare e conforme alle normative richiamate. Tuttavia, è necessario verificare se l'operatore economico abbia effettivamente utilizzato la piattaforma di e-procurement Start, Consip Mepa ai fini della pubblicità su Banca Dati Nazionale/PCT ANAC, come richiesto dalla normativa. Inoltre, è importante verificare se l'ordine di esecuzione n. 7 sia stato approvato in conformità con le normative vigenti e se la spesa sia stata finanziata nel rispetto del bilancio di previsione 2025-2027. È anche necessario verificare se il responsabile unico del progetto (RUP) e il direttore dell'esecuzione (DEC) abbiano effettivamente reso le dichiarazioni richieste. In</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
